--- a/document/交易大盘数据库设计表@20180315.xlsx
+++ b/document/交易大盘数据库设计表@20180315.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
   <si>
     <t>user_tab</t>
   </si>
@@ -803,6 +803,37 @@
     <t>redis成交记录</t>
   </si>
   <si>
+    <t>transaction_currency_coefficient_tab</t>
+  </si>
+  <si>
+    <t>币种系数记录表</t>
+  </si>
+  <si>
+    <t>currencyCoefficient</t>
+  </si>
+  <si>
+    <t>币种系数</t>
+  </si>
+  <si>
+    <t>transaction_statistics_tab</t>
+  </si>
+  <si>
+    <t>交易统计记录表</t>
+  </si>
+  <si>
+    <t>transactionTotalNumber</t>
+  </si>
+  <si>
+    <t>成交总数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactionTotalPrice+</t>
+  </si>
+  <si>
+    <t>成交总价格</t>
+  </si>
+  <si>
     <t>system_validate_phone_tab</t>
   </si>
   <si>
@@ -1088,10 +1119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1117,32 +1148,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,8 +1180,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,14 +1198,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,18 +1226,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,47 +1280,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,10 +1309,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1318,7 +1349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1379,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,13 +1475,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,67 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,73 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,10 +1601,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1583,10 +1614,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1605,6 +1636,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1616,30 +1671,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,16 +1696,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1692,148 +1723,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1976,73 +2007,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2391,7 +2422,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="51"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -2456,7 +2487,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:11">
       <c r="B5" s="9" t="s">
@@ -2544,7 +2575,7 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="61" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="11"/>
@@ -2568,7 +2599,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
@@ -2624,29 +2655,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" s="58" customFormat="1" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B12" s="59" t="s">
+    <row r="12" s="47" customFormat="1" ht="14.25" customHeight="1" spans="2:11">
+      <c r="B12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="51">
         <v>1</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62">
+      <c r="F12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51">
         <v>0</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="56" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2724,14 +2755,14 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B16" s="9"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="67"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
@@ -2834,7 +2865,7 @@
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="54"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B21" s="9" t="s">
@@ -2987,7 +3018,7 @@
       <c r="I27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="2:11">
@@ -3012,7 +3043,7 @@
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="54"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="2:11">
       <c r="B29" s="9" t="s">
@@ -3074,7 +3105,7 @@
       <c r="F31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3382,17 +3413,17 @@
       <c r="B47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="2:11">
       <c r="B48" s="7" t="s">
@@ -3450,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="54" t="s">
+      <c r="K49" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3476,7 +3507,7 @@
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="54"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="2:11">
       <c r="B51" s="9" t="s">
@@ -3739,7 +3770,7 @@
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="54"/>
+      <c r="K62" s="55"/>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="2:11">
       <c r="B63" s="9" t="s">
@@ -4087,7 +4118,7 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I74:I75"/>
   </mergeCells>
-  <pageMargins left="0.697222222222222" right="0.697222222222222" top="0.748611111111111" bottom="0.748611111111111" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageMargins left="0.696527777777778" right="0.696527777777778" top="0.747916666666667" bottom="0.747916666666667" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -4484,13 +4515,13 @@
       <c r="H18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="61" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" s="57" customFormat="1" ht="15.6" customHeight="1" spans="2:11">
+    <row r="19" s="60" customFormat="1" ht="15.6" customHeight="1" spans="2:11">
       <c r="B19" s="9" t="s">
         <v>144</v>
       </c>
@@ -6112,7 +6143,7 @@
     <mergeCell ref="C66:K66"/>
     <mergeCell ref="C80:K80"/>
   </mergeCells>
-  <pageMargins left="0.697222222222222" right="0.697222222222222" top="0.748611111111111" bottom="0.748611111111111" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageMargins left="0.696527777777778" right="0.696527777777778" top="0.747916666666667" bottom="0.747916666666667" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -6121,10 +6152,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K76"/>
+  <dimension ref="B2:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6229,7 +6260,7 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="11"/>
@@ -6253,7 +6284,9 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="54" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
@@ -6344,28 +6377,28 @@
         <v>15</v>
       </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="50">
         <v>1</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="F11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="50"/>
       <c r="H11" s="11" t="s">
         <v>15</v>
       </c>
@@ -6376,22 +6409,22 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="50">
         <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="F12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="50"/>
       <c r="H12" s="11" t="s">
         <v>15</v>
       </c>
@@ -6402,10 +6435,10 @@
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="52" t="s">
         <v>196</v>
       </c>
       <c r="D13" s="50" t="s">
@@ -6516,7 +6549,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="51"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -6579,7 +6612,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6605,7 +6638,7 @@
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="54"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="2:11">
       <c r="B23" s="48" t="s">
@@ -6629,148 +6662,148 @@
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="49"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="F24" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="50">
         <v>11</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="F25" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="50">
         <v>32</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="F26" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11">
+      <c r="F27" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50">
         <v>0</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11">
+      <c r="F28" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50">
         <v>0</v>
       </c>
       <c r="K28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11">
+      <c r="F29" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50">
         <v>0</v>
       </c>
       <c r="K29" s="10"/>
@@ -6797,7 +6830,7 @@
       <c r="J30" s="50">
         <v>0</v>
       </c>
-      <c r="K30" s="49"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="2:11">
       <c r="B31" s="9" t="s">
@@ -6821,7 +6854,7 @@
       <c r="J31" s="11">
         <v>1</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="57" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6892,7 +6925,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="51"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -6957,7 +6990,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="54" t="s">
+      <c r="K38" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7007,7 +7040,7 @@
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="54"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="2:11">
       <c r="B41" s="9" t="s">
@@ -7031,7 +7064,7 @@
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49"/>
+      <c r="K41" s="56"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="2:11">
       <c r="B42" s="9" t="s">
@@ -7268,7 +7301,7 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="51"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -7333,7 +7366,7 @@
         <v>15</v>
       </c>
       <c r="J55" s="11"/>
-      <c r="K55" s="54" t="s">
+      <c r="K55" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7497,7 +7530,7 @@
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="55" t="s">
+      <c r="K62" s="57" t="s">
         <v>235</v>
       </c>
     </row>
@@ -7570,7 +7603,7 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="51"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -7635,7 +7668,7 @@
         <v>15</v>
       </c>
       <c r="J69" s="50"/>
-      <c r="K69" s="56"/>
+      <c r="K69" s="59"/>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="2:11">
       <c r="B70" s="48" t="s">
@@ -7657,98 +7690,98 @@
       <c r="H70" s="50"/>
       <c r="I70" s="50"/>
       <c r="J70" s="50"/>
-      <c r="K70" s="56"/>
+      <c r="K70" s="59"/>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="50">
         <v>1</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
+      <c r="F71" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
       <c r="K71" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="50">
         <v>11</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
+      <c r="F72" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="10"/>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11">
+      <c r="F73" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50">
         <v>0</v>
       </c>
       <c r="K73" s="10"/>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11">
+      <c r="F74" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50">
         <v>0</v>
       </c>
       <c r="K74" s="10"/>
@@ -7799,16 +7832,441 @@
       <c r="J76" s="11"/>
       <c r="K76" s="10"/>
     </row>
+    <row r="78" ht="15.6" spans="2:11">
+      <c r="B78" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" ht="15.6" spans="2:11">
+      <c r="B79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="15.6" spans="2:11">
+      <c r="B80" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="51">
+        <v>18</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="51"/>
+      <c r="K80" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" spans="2:11">
+      <c r="B81" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="11">
+        <v>11</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1" spans="2:11">
+      <c r="B82" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="11">
+        <v>32</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" ht="15.6" spans="2:11">
+      <c r="B83" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1" spans="2:11">
+      <c r="B84" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="11">
+        <v>16</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1" spans="2:11">
+      <c r="B85" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="11">
+        <v>30</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" ht="15.6" spans="2:11">
+      <c r="B86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="10"/>
+    </row>
+    <row r="88" ht="15.6" spans="2:11">
+      <c r="B88" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+    </row>
+    <row r="89" ht="15.6" spans="2:11">
+      <c r="B89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" ht="15.6" spans="2:11">
+      <c r="B90" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="51">
+        <v>18</v>
+      </c>
+      <c r="F90" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="51"/>
+      <c r="K90" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" ht="15.6" spans="2:11">
+      <c r="B91" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="11">
+        <v>11</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1" spans="2:11">
+      <c r="B92" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="11">
+        <v>32</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" ht="15.6" spans="2:11">
+      <c r="B93" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" ht="15.6" spans="2:11">
+      <c r="B94" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" ht="15.6" spans="2:11">
+      <c r="B95" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" ht="15.6" spans="2:11">
+      <c r="B96" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C36:K36"/>
     <mergeCell ref="C53:K53"/>
     <mergeCell ref="C67:K67"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C88:K88"/>
   </mergeCells>
-  <pageMargins left="0.697222222222222" right="0.697222222222222" top="0.748611111111111" bottom="0.748611111111111" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageMargins left="0.696527777777778" right="0.696527777777778" top="0.747916666666667" bottom="0.747916666666667" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -7819,8 +8277,8 @@
   <sheetPr/>
   <dimension ref="B2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -7837,10 +8295,10 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B2" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7913,7 +8371,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B5" s="9" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>65</v>
@@ -7937,10 +8395,10 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B6" s="9" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>17</v>
@@ -8001,10 +8459,10 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B9" s="9" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>35</v>
@@ -8022,15 +8480,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B10" s="9" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>45</v>
@@ -8057,10 +8515,10 @@
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="2:11">
       <c r="B12" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -8133,10 +8591,10 @@
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="2:11">
       <c r="B15" s="9" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -8155,10 +8613,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="2:11">
       <c r="B16" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -8177,10 +8635,10 @@
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="2:11">
       <c r="B17" s="9" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>17</v>
@@ -8197,10 +8655,10 @@
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="2:11">
       <c r="B18" s="9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>17</v>
@@ -8269,10 +8727,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="2:11">
       <c r="B22" s="12" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -8345,10 +8803,10 @@
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="2:11">
       <c r="B25" s="9" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>17</v>
@@ -8367,10 +8825,10 @@
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="2:11">
       <c r="B26" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>17</v>
@@ -8389,10 +8847,10 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="2:11">
       <c r="B27" s="9" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>17</v>
@@ -8409,10 +8867,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="2:11">
       <c r="B28" s="9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>17</v>
@@ -8449,10 +8907,10 @@
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="2:11">
       <c r="B30" s="9" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>45</v>
@@ -8477,10 +8935,10 @@
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="2:11">
       <c r="B32" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -8553,10 +9011,10 @@
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="2:11">
       <c r="B35" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>17</v>
@@ -8575,10 +9033,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="2:11">
       <c r="B36" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>17</v>
@@ -8597,10 +9055,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="2:11">
       <c r="B37" s="9" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>17</v>
@@ -8616,18 +9074,18 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="2:11">
       <c r="B38" s="9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
@@ -8661,10 +9119,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="2:11">
       <c r="B40" s="9" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>45</v>
@@ -8691,10 +9149,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="2:11">
       <c r="B42" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -8767,10 +9225,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="2:11">
       <c r="B45" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>17</v>
@@ -8789,10 +9247,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="2:11">
       <c r="B46" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>17</v>
@@ -8811,10 +9269,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="2:11">
       <c r="B47" s="9" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>17</v>
@@ -8830,18 +9288,18 @@
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="2:11">
       <c r="B48" s="9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
@@ -8875,10 +9333,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="2:11">
       <c r="B50" s="9" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>45</v>
@@ -8905,10 +9363,10 @@
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="2:11">
       <c r="B52" s="12" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -8981,10 +9439,10 @@
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="2:11">
       <c r="B55" s="9" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>17</v>
@@ -9003,10 +9461,10 @@
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="2:11">
       <c r="B56" s="9" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>17</v>
@@ -9025,13 +9483,13 @@
     </row>
     <row r="57" ht="14.25" customHeight="1" spans="2:11">
       <c r="B57" s="9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
@@ -9065,10 +9523,10 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B60" s="22" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -9113,13 +9571,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B62" s="27" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E62" s="29">
         <v>6</v>
@@ -9134,15 +9592,15 @@
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="35" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B63" s="27" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>17</v>
@@ -9161,16 +9619,16 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B64" s="27" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>15</v>
@@ -9180,7 +9638,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="27" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="2:11">
@@ -9217,10 +9675,10 @@
     </row>
     <row r="67" s="3" customFormat="1" ht="15" customHeight="1" spans="2:12">
       <c r="B67" s="37" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
@@ -9296,10 +9754,10 @@
     </row>
     <row r="70" s="3" customFormat="1" ht="15" customHeight="1" spans="2:12">
       <c r="B70" s="42" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D70" s="44" t="s">
         <v>14</v>
@@ -9317,16 +9775,16 @@
       <c r="I70" s="44"/>
       <c r="J70" s="44"/>
       <c r="K70" s="43" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L70" s="46"/>
     </row>
     <row r="71" s="3" customFormat="1" ht="15" customHeight="1" spans="2:12">
       <c r="B71" s="42" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D71" s="44" t="s">
         <v>17</v>
@@ -9346,10 +9804,10 @@
     </row>
     <row r="72" s="3" customFormat="1" ht="15" customHeight="1" spans="2:12">
       <c r="B72" s="42" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D72" s="44" t="s">
         <v>35</v>
@@ -9367,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="43" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L72" s="46"/>
     </row>
@@ -9392,19 +9850,19 @@
       <c r="I73" s="44"/>
       <c r="J73" s="44"/>
       <c r="K73" s="43" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L73" s="46"/>
     </row>
     <row r="74" s="3" customFormat="1" ht="15" customHeight="1" spans="2:12">
       <c r="B74" s="42" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E74" s="44">
         <v>11</v>
@@ -9417,7 +9875,7 @@
       <c r="I74" s="44"/>
       <c r="J74" s="44"/>
       <c r="K74" s="43" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L74" s="46"/>
     </row>
@@ -9442,7 +9900,7 @@
       <c r="I75" s="44"/>
       <c r="J75" s="44"/>
       <c r="K75" s="43" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L75" s="46"/>
     </row>
@@ -9478,7 +9936,7 @@
     <mergeCell ref="C60:K60"/>
     <mergeCell ref="C67:K67"/>
   </mergeCells>
-  <pageMargins left="0.748611111111111" right="0.748611111111111" top="0.998611111111111" bottom="0.998611111111111" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.997916666666667" bottom="0.997916666666667" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
